--- a/images/comparision.xlsx
+++ b/images/comparision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\坚果云\我的坚果云\project\ShinyCell\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57AAA9C-DFEB-4DBC-AA52-027AB587C993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16CDD4-680C-4332-AB94-4F2428B602B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{7E182BA6-79D4-452C-99B4-C1C0936C71E8}"/>
   </bookViews>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
-  <si>
-    <t>ShinyCell</t>
-  </si>
   <si>
     <t>cellxgene</t>
   </si>
@@ -188,6 +185,10 @@
   </si>
   <si>
     <t>R/Java/Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShinyCellX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,15 +693,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C7CA2A-9E9C-4C12-B9AD-5307AF7F48A8}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9" style="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
@@ -711,74 +713,74 @@
     <row r="2" spans="2:12" s="3" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -788,183 +790,183 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -974,45 +976,45 @@
     </row>
     <row r="12" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -1020,13 +1022,13 @@
     </row>
     <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1034,17 +1036,17 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1053,77 +1055,77 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="16"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -1135,20 +1137,20 @@
     </row>
     <row r="19" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
@@ -1156,64 +1158,64 @@
     </row>
     <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="2" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="E21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="G21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
